--- a/raw/necropsy/20250717_r7_GR_USDA-obex_Nano-QuIC.xlsx
+++ b/raw/necropsy/20250717_r7_GR_USDA-obex_Nano-QuIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNPRO\Desktop\RT-QuIC Data\Gage's RT-QuIC Data\2025\20250717_r7_GR_USDA-obex_Nano-QuIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBFFBD8-3023-44D5-88E8-6024C3A2B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F877901-5C16-4765-8A71-913F17664410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2E2CA176-48B6-43CE-B91C-6A0709DFBFCA}"/>
+    <workbookView xWindow="-14505" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{2E2CA176-48B6-43CE-B91C-6A0709DFBFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="159">
   <si>
     <t>User: USER</t>
   </si>
@@ -1136,7 +1139,7 @@
   <dimension ref="A3:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C27" sqref="C27:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,38 +1613,38 @@
       <c r="B27" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>145</v>
+      <c r="C27" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J27" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L27" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1975</v>
       </c>
       <c r="O27" s="21"/>
     </row>
@@ -1652,38 +1655,38 @@
       <c r="B28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>145</v>
+      <c r="C28" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I28" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J28" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K28" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L28" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1693,38 +1696,38 @@
       <c r="B29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>145</v>
+      <c r="C29" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J29" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K29" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1734,38 +1737,38 @@
       <c r="B30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>145</v>
+      <c r="C30" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G30" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H30" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I30" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J30" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K30" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L30" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1775,38 +1778,38 @@
       <c r="B31" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>145</v>
+      <c r="C31" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F31" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I31" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K31" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L31" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1816,38 +1819,38 @@
       <c r="B32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>145</v>
+      <c r="C32" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F32" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H32" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J32" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K32" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L32" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M32" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1857,38 +1860,38 @@
       <c r="B33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>145</v>
+      <c r="C33" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F33" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H33" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I33" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J33" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K33" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L33" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M33" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -1898,38 +1901,38 @@
       <c r="B34" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>145</v>
+      <c r="C34" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I34" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K34" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L34" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M34" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
